--- a/自己的服务器.xlsx
+++ b/自己的服务器.xlsx
@@ -548,7 +548,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="48.5" customWidth="1"/>
     <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
